--- a/biology/Biochimie/Cofacteur_à_molybdène/Cofacteur_à_molybdène.xlsx
+++ b/biology/Biochimie/Cofacteur_à_molybdène/Cofacteur_à_molybdène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cofacteur_%C3%A0_molybd%C3%A8ne</t>
+          <t>Cofacteur_à_molybdène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un cofacteur à molybdène, parfois abrégé en MoCo, est un cofacteur nécessaire à l'activité de certaines enzymes telles que la xanthine oxydase, la DMSO réductase, la sulfite oxydase, la nitrate réductase, l'éthylbenzène hydroxylase, la glycéraldéhyde-3-phosphate déshydrogénase à ferrédoxine et l'arséniate réductase à glutarédoxine[2],[3]. Chimiquement, de tels cofacteurs résultent de la formation d'un complexe entre un oxyde de molybdène et une molécule de molybdoptérine, ou un dérivé — parfois assez éloigné — de molybdoptérine.
+Un cofacteur à molybdène, parfois abrégé en MoCo, est un cofacteur nécessaire à l'activité de certaines enzymes telles que la xanthine oxydase, la DMSO réductase, la sulfite oxydase, la nitrate réductase, l'éthylbenzène hydroxylase, la glycéraldéhyde-3-phosphate déshydrogénase à ferrédoxine et l'arséniate réductase à glutarédoxine,. Chimiquement, de tels cofacteurs résultent de la formation d'un complexe entre un oxyde de molybdène et une molécule de molybdoptérine, ou un dérivé — parfois assez éloigné — de molybdoptérine.
 Les nitrogénases, phylogénétiquement plus anciennes, sont les seules enzymes connues utilisant le molybdène mais sans molybdoptérine — elles utilisent à la place des centres fer-soufre, de structure très différente dans laquelle le molybdène est lié à d'autres atomes métalliques ; elles permettent à certaines bactéries et cyanobactéries de fixer l'azote atmosphérique.
 Ce type de cofacteurs peut revêtir diverses formes actives chez les procaryotes, tel que le bis(molybdoptérine guanine dinucléotide)molybdène ci-dessous :
 Le cofacteur à molybdène utilisé par la sulfite oxydase a encore une structure différente :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cofacteur_%C3%A0_molybd%C3%A8ne</t>
+          <t>Cofacteur_à_molybdène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en cofacteur à molybdène est une maladie rare se caractérisant par la survenue de crises convulsives peu après la naissance.
 </t>
